--- a/data/testcases.xlsx
+++ b/data/testcases.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="118">
   <si>
     <t>接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1331,6 +1331,14 @@
   </si>
   <si>
     <t>建议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_2_25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"username": "admin1"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1719,10 +1727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S24"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2608,6 +2616,47 @@
         <v>95</v>
       </c>
     </row>
+    <row r="25" spans="1:18">
+      <c r="A25" t="s">
+        <v>116</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" t="s">
+        <v>112</v>
+      </c>
+      <c r="E25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" t="s">
+        <v>59</v>
+      </c>
+      <c r="G25" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25" s="3">
+        <v>200</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="M25" t="s">
+        <v>98</v>
+      </c>
+      <c r="N25" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>66</v>
+      </c>
+      <c r="R25" t="s">
+        <v>95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/testcases.xlsx
+++ b/data/testcases.xlsx
@@ -1338,7 +1338,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"username": "admin1"</t>
+    <t>"username": "admin"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1730,7 +1730,7 @@
   <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/data/testcases.xlsx
+++ b/data/testcases.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="94">
   <si>
     <t>接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,22 +48,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>login_1_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login_2_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login_3_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login_4_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>登录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -273,66 +257,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>login_5_5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login_6_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login_7_7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login_8_8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login_9_9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login_10_10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login_11_11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login_12_12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login_13_13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login_14_14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login_15_15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login_16_16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login_17_17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login_18_18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login_19_19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>login_20_20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1214,14 +1138,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>login_21_21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_1_23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"non_field_errors": ["账号或密码不正确！"]}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1238,10 +1154,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>user_2_24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>查看个人信息，不使用token</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1331,14 +1243,6 @@
   </si>
   <si>
     <t>建议</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_2_25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"username": "admin"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1727,10 +1631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S25"/>
+  <dimension ref="A1:S94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1756,25 +1660,25 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G1" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
@@ -1783,19 +1687,19 @@
         <v>3</v>
       </c>
       <c r="J1" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="K1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L1" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="M1" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="N1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="O1" t="s">
         <v>4</v>
@@ -1804,7 +1708,7 @@
         <v>5</v>
       </c>
       <c r="Q1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="R1" t="s">
         <v>6</v>
@@ -1814,847 +1718,897 @@
       </c>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
         <v>26</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" t="s">
-        <v>30</v>
       </c>
       <c r="J2" s="3">
         <v>400</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="J3" s="3">
         <v>400</v>
       </c>
       <c r="K3" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="Q3" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" t="s">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
       <c r="D4" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
         <v>26</v>
       </c>
-      <c r="G4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" t="s">
-        <v>30</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="J4" s="3">
         <v>400</v>
       </c>
       <c r="K4" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="Q4" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" t="s">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
       <c r="D5" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
         <v>26</v>
       </c>
-      <c r="G5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" t="s">
-        <v>30</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="J5" s="3">
         <v>400</v>
       </c>
       <c r="K5" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="Q5" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" t="s">
-        <v>44</v>
+      <c r="A6">
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
         <v>26</v>
       </c>
-      <c r="G6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" t="s">
-        <v>30</v>
-      </c>
       <c r="I6" s="1" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="J6" s="3">
         <v>400</v>
       </c>
       <c r="K6" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="Q6" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" t="s">
-        <v>45</v>
+      <c r="A7">
+        <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
       <c r="D7" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s">
         <v>26</v>
       </c>
-      <c r="G7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" t="s">
-        <v>30</v>
-      </c>
       <c r="I7" s="1" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="J7" s="3">
         <v>400</v>
       </c>
       <c r="K7" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="Q7" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" t="s">
-        <v>46</v>
+      <c r="A8">
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" t="s">
         <v>26</v>
       </c>
-      <c r="G8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" t="s">
-        <v>30</v>
-      </c>
       <c r="I8" s="1" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="J8" s="3">
         <v>400</v>
       </c>
       <c r="K8" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="Q8" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" t="s">
-        <v>47</v>
+      <c r="A9">
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" t="s">
         <v>26</v>
       </c>
-      <c r="G9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" t="s">
-        <v>30</v>
-      </c>
       <c r="I9" s="1" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="J9" s="3">
         <v>400</v>
       </c>
       <c r="K9" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="Q9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="A10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>110</v>
-      </c>
-      <c r="E10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="J10" s="3">
         <v>401</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="Q10" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" t="s">
-        <v>49</v>
+      <c r="A11">
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" t="s">
         <v>26</v>
       </c>
-      <c r="G11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" t="s">
-        <v>30</v>
-      </c>
       <c r="I11" s="1" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="J11" s="3">
         <v>400</v>
       </c>
       <c r="K11" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
         <v>88</v>
       </c>
-      <c r="Q11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="A12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>22</v>
       </c>
-      <c r="D12" t="s">
-        <v>110</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" t="s">
         <v>26</v>
       </c>
-      <c r="G12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" t="s">
-        <v>30</v>
-      </c>
       <c r="I12" s="1" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="J12" s="3">
         <v>400</v>
       </c>
       <c r="K12" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
         <v>88</v>
       </c>
-      <c r="Q12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="A13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" t="s">
-        <v>110</v>
-      </c>
       <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" t="s">
         <v>26</v>
       </c>
-      <c r="G13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" t="s">
-        <v>30</v>
-      </c>
       <c r="I13" s="1" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="J13" s="3">
         <v>400</v>
       </c>
       <c r="K13" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="Q13" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" t="s">
-        <v>52</v>
+      <c r="A14">
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="E14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" t="s">
         <v>26</v>
       </c>
-      <c r="G14" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" t="s">
-        <v>30</v>
-      </c>
       <c r="I14" s="1" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="J14" s="3">
         <v>400</v>
       </c>
       <c r="K14" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="Q14" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" t="s">
-        <v>53</v>
+      <c r="A15">
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="E15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" t="s">
         <v>26</v>
       </c>
-      <c r="G15" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" t="s">
-        <v>30</v>
-      </c>
       <c r="I15" s="1" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="J15" s="3">
         <v>400</v>
       </c>
       <c r="K15" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="Q15" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" t="s">
-        <v>54</v>
+      <c r="A16">
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="E16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" t="s">
         <v>26</v>
       </c>
-      <c r="G16" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16" t="s">
-        <v>30</v>
-      </c>
       <c r="I16" s="1" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="J16" s="3">
         <v>400</v>
       </c>
       <c r="K16" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
         <v>88</v>
       </c>
-      <c r="Q16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
-      <c r="A17" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" t="s">
-        <v>110</v>
-      </c>
       <c r="E17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" t="s">
         <v>26</v>
       </c>
-      <c r="G17" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" t="s">
-        <v>30</v>
-      </c>
       <c r="I17" s="1" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="J17" s="3">
         <v>401</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="Q17" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" t="s">
-        <v>56</v>
+      <c r="A18">
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="E18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" t="s">
         <v>26</v>
       </c>
-      <c r="G18" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" t="s">
-        <v>30</v>
-      </c>
       <c r="I18" s="1" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="J18" s="3">
         <v>400</v>
       </c>
       <c r="K18" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="Q18" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:18">
-      <c r="A19" t="s">
-        <v>57</v>
+      <c r="A19">
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="E19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" t="s">
         <v>26</v>
       </c>
-      <c r="G19" t="s">
-        <v>28</v>
-      </c>
-      <c r="H19" t="s">
-        <v>30</v>
-      </c>
       <c r="I19" s="1" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="J19" s="3">
         <v>401</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="Q19" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:18">
-      <c r="A20" t="s">
-        <v>58</v>
+      <c r="A20">
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="E20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" t="s">
         <v>26</v>
       </c>
-      <c r="G20" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" t="s">
-        <v>30</v>
-      </c>
       <c r="I20" s="1" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="J20" s="3">
         <v>400</v>
       </c>
       <c r="K20" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="Q20" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:18">
-      <c r="A21" t="s">
-        <v>59</v>
+      <c r="A21">
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="E21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" t="s">
         <v>26</v>
       </c>
-      <c r="G21" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" t="s">
-        <v>30</v>
-      </c>
       <c r="I21" s="1" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="J21" s="3">
         <v>200</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="2" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="M21" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="N21" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="Q21" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" t="s">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" t="s">
         <v>86</v>
       </c>
-      <c r="B22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" t="s">
-        <v>108</v>
-      </c>
       <c r="E22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" t="s">
         <v>26</v>
       </c>
-      <c r="G22" t="s">
-        <v>28</v>
-      </c>
-      <c r="H22" t="s">
-        <v>30</v>
-      </c>
       <c r="I22" s="1" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="J22" s="3">
         <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" t="s">
-        <v>87</v>
+      <c r="A23">
+        <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" t="s">
         <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>93</v>
-      </c>
-      <c r="D23" t="s">
-        <v>108</v>
-      </c>
-      <c r="E23" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" t="s">
-        <v>29</v>
       </c>
       <c r="J23" s="3">
         <v>401</v>
       </c>
       <c r="K23" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="Q23" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" t="s">
-        <v>92</v>
+      <c r="A24">
+        <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" t="s">
         <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" t="s">
-        <v>112</v>
-      </c>
-      <c r="E24" t="s">
-        <v>27</v>
-      </c>
-      <c r="F24" t="s">
-        <v>59</v>
-      </c>
-      <c r="G24" t="s">
-        <v>29</v>
       </c>
       <c r="J24" s="3">
         <v>200</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="M24" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="N24" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="Q24" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="R24" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" t="s">
-        <v>116</v>
+      <c r="A25">
+        <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" t="s">
         <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" t="s">
-        <v>112</v>
-      </c>
-      <c r="E25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" t="s">
-        <v>59</v>
-      </c>
-      <c r="G25" t="s">
-        <v>29</v>
       </c>
       <c r="J25" s="3">
         <v>200</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="M25" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="N25" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="Q25" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="R25" t="s">
-        <v>95</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/testcases.xlsx
+++ b/data/testcases.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="93">
   <si>
     <t>接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -254,10 +254,6 @@
   </si>
   <si>
     <t>前置条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login_20_20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1633,8 +1629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1660,7 +1656,7 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1669,7 +1665,7 @@
         <v>35</v>
       </c>
       <c r="D1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -1678,7 +1674,7 @@
         <v>39</v>
       </c>
       <c r="G1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
@@ -1687,16 +1683,16 @@
         <v>3</v>
       </c>
       <c r="J1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K1" t="s">
         <v>36</v>
       </c>
       <c r="L1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M1" t="s">
         <v>82</v>
-      </c>
-      <c r="M1" t="s">
-        <v>83</v>
       </c>
       <c r="N1" t="s">
         <v>37</v>
@@ -1728,7 +1724,7 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E2" t="s">
         <v>22</v>
@@ -1743,10 +1739,10 @@
         <v>400</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1760,7 +1756,7 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E3" t="s">
         <v>22</v>
@@ -1772,16 +1768,16 @@
         <v>26</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J3" s="3">
         <v>400</v>
       </c>
       <c r="K3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1795,7 +1791,7 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E4" t="s">
         <v>22</v>
@@ -1807,16 +1803,16 @@
         <v>26</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J4" s="3">
         <v>400</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1830,7 +1826,7 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E5" t="s">
         <v>22</v>
@@ -1842,16 +1838,16 @@
         <v>26</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J5" s="3">
         <v>400</v>
       </c>
       <c r="K5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1865,7 +1861,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E6" t="s">
         <v>22</v>
@@ -1877,16 +1873,16 @@
         <v>26</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J6" s="3">
         <v>400</v>
       </c>
       <c r="K6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -1900,7 +1896,7 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E7" t="s">
         <v>22</v>
@@ -1912,16 +1908,16 @@
         <v>26</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J7" s="3">
         <v>400</v>
       </c>
       <c r="K7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1935,7 +1931,7 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E8" t="s">
         <v>22</v>
@@ -1947,16 +1943,16 @@
         <v>26</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J8" s="3">
         <v>400</v>
       </c>
       <c r="K8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -1970,7 +1966,7 @@
         <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E9" t="s">
         <v>22</v>
@@ -1982,16 +1978,16 @@
         <v>26</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J9" s="3">
         <v>400</v>
       </c>
       <c r="K9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -2005,7 +2001,7 @@
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E10" t="s">
         <v>22</v>
@@ -2017,7 +2013,7 @@
         <v>26</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J10" s="3">
         <v>401</v>
@@ -2026,7 +2022,7 @@
         <v>34</v>
       </c>
       <c r="Q10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -2040,7 +2036,7 @@
         <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E11" t="s">
         <v>22</v>
@@ -2052,16 +2048,16 @@
         <v>26</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J11" s="3">
         <v>400</v>
       </c>
       <c r="K11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -2075,7 +2071,7 @@
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E12" t="s">
         <v>22</v>
@@ -2087,16 +2083,16 @@
         <v>26</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J12" s="3">
         <v>400</v>
       </c>
       <c r="K12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -2110,7 +2106,7 @@
         <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E13" t="s">
         <v>22</v>
@@ -2122,16 +2118,16 @@
         <v>26</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J13" s="3">
         <v>400</v>
       </c>
       <c r="K13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -2145,7 +2141,7 @@
         <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14" t="s">
         <v>22</v>
@@ -2157,16 +2153,16 @@
         <v>26</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J14" s="3">
         <v>400</v>
       </c>
       <c r="K14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -2180,7 +2176,7 @@
         <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E15" t="s">
         <v>22</v>
@@ -2192,16 +2188,16 @@
         <v>26</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J15" s="3">
         <v>400</v>
       </c>
       <c r="K15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -2215,7 +2211,7 @@
         <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E16" t="s">
         <v>22</v>
@@ -2227,16 +2223,16 @@
         <v>26</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J16" s="3">
         <v>400</v>
       </c>
       <c r="K16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2250,7 +2246,7 @@
         <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E17" t="s">
         <v>22</v>
@@ -2262,7 +2258,7 @@
         <v>26</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J17" s="3">
         <v>401</v>
@@ -2271,7 +2267,7 @@
         <v>34</v>
       </c>
       <c r="Q17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2285,7 +2281,7 @@
         <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E18" t="s">
         <v>22</v>
@@ -2297,16 +2293,16 @@
         <v>26</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J18" s="3">
         <v>400</v>
       </c>
       <c r="K18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2320,7 +2316,7 @@
         <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E19" t="s">
         <v>22</v>
@@ -2332,7 +2328,7 @@
         <v>26</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J19" s="3">
         <v>401</v>
@@ -2341,7 +2337,7 @@
         <v>34</v>
       </c>
       <c r="Q19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2355,7 +2351,7 @@
         <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E20" t="s">
         <v>22</v>
@@ -2367,16 +2363,16 @@
         <v>26</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J20" s="3">
         <v>400</v>
       </c>
       <c r="K20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2390,7 +2386,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E21" t="s">
         <v>22</v>
@@ -2402,23 +2398,23 @@
         <v>26</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J21" s="3">
         <v>200</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M21" t="s">
+        <v>75</v>
+      </c>
+      <c r="N21" t="s">
         <v>78</v>
       </c>
-      <c r="M21" t="s">
-        <v>76</v>
-      </c>
-      <c r="N21" t="s">
-        <v>79</v>
-      </c>
       <c r="Q21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2432,7 +2428,7 @@
         <v>28</v>
       </c>
       <c r="D22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E22" t="s">
         <v>22</v>
@@ -2444,7 +2440,7 @@
         <v>26</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J22" s="3">
         <v>200</v>
@@ -2458,10 +2454,10 @@
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E23" t="s">
         <v>23</v>
@@ -2473,10 +2469,10 @@
         <v>401</v>
       </c>
       <c r="K23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2490,13 +2486,13 @@
         <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E24" t="s">
         <v>23</v>
       </c>
-      <c r="F24" t="s">
-        <v>40</v>
+      <c r="F24">
+        <v>20</v>
       </c>
       <c r="G24" t="s">
         <v>25</v>
@@ -2505,19 +2501,19 @@
         <v>200</v>
       </c>
       <c r="L24" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="M24" t="s">
+        <v>76</v>
+      </c>
+      <c r="N24" t="s">
         <v>74</v>
       </c>
-      <c r="M24" t="s">
-        <v>77</v>
-      </c>
-      <c r="N24" t="s">
-        <v>75</v>
-      </c>
       <c r="Q24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2531,13 +2527,13 @@
         <v>20</v>
       </c>
       <c r="D25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E25" t="s">
         <v>23</v>
       </c>
-      <c r="F25" t="s">
-        <v>40</v>
+      <c r="F25">
+        <v>20</v>
       </c>
       <c r="G25" t="s">
         <v>25</v>
@@ -2546,19 +2542,19 @@
         <v>200</v>
       </c>
       <c r="L25" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="M25" t="s">
+        <v>75</v>
+      </c>
+      <c r="N25" t="s">
         <v>74</v>
       </c>
-      <c r="M25" t="s">
-        <v>76</v>
-      </c>
-      <c r="N25" t="s">
-        <v>75</v>
-      </c>
       <c r="Q25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="85" spans="1:1">

--- a/data/testcases.xlsx
+++ b/data/testcases.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="94">
   <si>
     <t>接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1239,6 +1239,10 @@
   </si>
   <si>
     <t>建议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"username": "admin1"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1629,8 +1633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2542,7 +2546,7 @@
         <v>200</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="M25" t="s">
         <v>75</v>
